--- a/relationship_mapping.xlsx
+++ b/relationship_mapping.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kek67197.MYID\AppData\Roaming\OCLC\Connex\Macros\Projects\RelationshipLabels\lcpcclabels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kek67197.MYID\AppData\Roaming\OCLC\Connex\Macros\Projects\RelationshipLabels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2067AF97-B0A6-4FE6-9215-C63CD56DDB98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4CED73-6B00-41CB-850D-8C8723C72C7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{88E9D25B-84E2-4D1B-9CF6-0F03DEA062E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="2" xr2:uid="{88E9D25B-84E2-4D1B-9CF6-0F03DEA062E6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Agents" sheetId="1" r:id="rId1"/>
+    <sheet name="WEMI-to-WEMI" sheetId="3" r:id="rId2"/>
+    <sheet name="MARC Relators" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="1529">
   <si>
     <t>creator</t>
   </si>
@@ -2155,6 +2157,2463 @@
   </si>
   <si>
     <t>USE: commissioning body</t>
+  </si>
+  <si>
+    <t>abr</t>
+  </si>
+  <si>
+    <t>Abridger</t>
+  </si>
+  <si>
+    <t>acp</t>
+  </si>
+  <si>
+    <t>Art copyist</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>adi</t>
+  </si>
+  <si>
+    <t>Art director</t>
+  </si>
+  <si>
+    <t>adp</t>
+  </si>
+  <si>
+    <t>Adapter</t>
+  </si>
+  <si>
+    <t>aft</t>
+  </si>
+  <si>
+    <t>Author of afterword, colophon, etc.</t>
+  </si>
+  <si>
+    <t>anc</t>
+  </si>
+  <si>
+    <t>Announcer</t>
+  </si>
+  <si>
+    <t>anl</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>anm</t>
+  </si>
+  <si>
+    <t>Animator</t>
+  </si>
+  <si>
+    <t>ann</t>
+  </si>
+  <si>
+    <t>Annotator</t>
+  </si>
+  <si>
+    <t>ant</t>
+  </si>
+  <si>
+    <t>Bibliographic antecedent</t>
+  </si>
+  <si>
+    <t>ape</t>
+  </si>
+  <si>
+    <t>Appellee</t>
+  </si>
+  <si>
+    <t>apl</t>
+  </si>
+  <si>
+    <t>Appellant</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>Applicant</t>
+  </si>
+  <si>
+    <t>aqt</t>
+  </si>
+  <si>
+    <t>Author in quotations or text abstracts</t>
+  </si>
+  <si>
+    <t>arc</t>
+  </si>
+  <si>
+    <t>Architect</t>
+  </si>
+  <si>
+    <t>ard</t>
+  </si>
+  <si>
+    <t>Artistic director</t>
+  </si>
+  <si>
+    <t>arr</t>
+  </si>
+  <si>
+    <t>Arranger</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>Artist</t>
+  </si>
+  <si>
+    <t>asg</t>
+  </si>
+  <si>
+    <t>Assignee</t>
+  </si>
+  <si>
+    <t>asn</t>
+  </si>
+  <si>
+    <t>Associated name</t>
+  </si>
+  <si>
+    <t>ato</t>
+  </si>
+  <si>
+    <t>Autographer</t>
+  </si>
+  <si>
+    <t>att</t>
+  </si>
+  <si>
+    <t>Attributed name</t>
+  </si>
+  <si>
+    <t>auc</t>
+  </si>
+  <si>
+    <t>Auctioneer</t>
+  </si>
+  <si>
+    <t>aud</t>
+  </si>
+  <si>
+    <t>Author of dialog</t>
+  </si>
+  <si>
+    <t>aue</t>
+  </si>
+  <si>
+    <t>Audio engineer</t>
+  </si>
+  <si>
+    <t>aui</t>
+  </si>
+  <si>
+    <t>Author of introduction, etc.</t>
+  </si>
+  <si>
+    <t>aup</t>
+  </si>
+  <si>
+    <t>Audio producer</t>
+  </si>
+  <si>
+    <t>aus</t>
+  </si>
+  <si>
+    <t>Screenwriter</t>
+  </si>
+  <si>
+    <t>aut</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>bdd</t>
+  </si>
+  <si>
+    <t>Binding designer</t>
+  </si>
+  <si>
+    <t>bjd</t>
+  </si>
+  <si>
+    <t>Bookjacket designer</t>
+  </si>
+  <si>
+    <t>bka</t>
+  </si>
+  <si>
+    <t>Book artist</t>
+  </si>
+  <si>
+    <t>bkd</t>
+  </si>
+  <si>
+    <t>Book designer</t>
+  </si>
+  <si>
+    <t>bkp</t>
+  </si>
+  <si>
+    <t>Book producer</t>
+  </si>
+  <si>
+    <t>blw</t>
+  </si>
+  <si>
+    <t>Blurb writer</t>
+  </si>
+  <si>
+    <t>bnd</t>
+  </si>
+  <si>
+    <t>Binder</t>
+  </si>
+  <si>
+    <t>bpd</t>
+  </si>
+  <si>
+    <t>Bookplate designer</t>
+  </si>
+  <si>
+    <t>brd</t>
+  </si>
+  <si>
+    <t>Broadcaster</t>
+  </si>
+  <si>
+    <t>brl</t>
+  </si>
+  <si>
+    <t>Braille embosser</t>
+  </si>
+  <si>
+    <t>bsl</t>
+  </si>
+  <si>
+    <t>Bookseller</t>
+  </si>
+  <si>
+    <t>cad</t>
+  </si>
+  <si>
+    <t>Casting director</t>
+  </si>
+  <si>
+    <t>cas</t>
+  </si>
+  <si>
+    <t>Caster</t>
+  </si>
+  <si>
+    <t>ccp</t>
+  </si>
+  <si>
+    <t>Conceptor</t>
+  </si>
+  <si>
+    <t>chr</t>
+  </si>
+  <si>
+    <t>Choreographer</t>
+  </si>
+  <si>
+    <t>Collaborator</t>
+  </si>
+  <si>
+    <t>cli</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>cll</t>
+  </si>
+  <si>
+    <t>Calligrapher</t>
+  </si>
+  <si>
+    <t>clr</t>
+  </si>
+  <si>
+    <t>Colorist</t>
+  </si>
+  <si>
+    <t>clt</t>
+  </si>
+  <si>
+    <t>Collotyper</t>
+  </si>
+  <si>
+    <t>cmm</t>
+  </si>
+  <si>
+    <t>Commentator</t>
+  </si>
+  <si>
+    <t>cmp</t>
+  </si>
+  <si>
+    <t>Composer</t>
+  </si>
+  <si>
+    <t>cmt</t>
+  </si>
+  <si>
+    <t>Compositor</t>
+  </si>
+  <si>
+    <t>cnd</t>
+  </si>
+  <si>
+    <t>Conductor</t>
+  </si>
+  <si>
+    <t>cng</t>
+  </si>
+  <si>
+    <t>Cinematographer</t>
+  </si>
+  <si>
+    <t>cns</t>
+  </si>
+  <si>
+    <t>Censor</t>
+  </si>
+  <si>
+    <t>coe</t>
+  </si>
+  <si>
+    <t>Contestant-appellee</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>Collector</t>
+  </si>
+  <si>
+    <t>com</t>
+  </si>
+  <si>
+    <t>Compiler</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>Conservator</t>
+  </si>
+  <si>
+    <t>cop</t>
+  </si>
+  <si>
+    <t>Camera operator</t>
+  </si>
+  <si>
+    <t>cor</t>
+  </si>
+  <si>
+    <t>Collection registrar</t>
+  </si>
+  <si>
+    <t>cos</t>
+  </si>
+  <si>
+    <t>Contestant</t>
+  </si>
+  <si>
+    <t>cot</t>
+  </si>
+  <si>
+    <t>Contestant-appellant</t>
+  </si>
+  <si>
+    <t>cou</t>
+  </si>
+  <si>
+    <t>Court governed</t>
+  </si>
+  <si>
+    <t>cov</t>
+  </si>
+  <si>
+    <t>Cover designer</t>
+  </si>
+  <si>
+    <t>cpc</t>
+  </si>
+  <si>
+    <t>Copyright claimant</t>
+  </si>
+  <si>
+    <t>cpe</t>
+  </si>
+  <si>
+    <t>Complainant-appellee</t>
+  </si>
+  <si>
+    <t>cph</t>
+  </si>
+  <si>
+    <t>Copyright holder</t>
+  </si>
+  <si>
+    <t>cpl</t>
+  </si>
+  <si>
+    <t>Complainant</t>
+  </si>
+  <si>
+    <t>cpt</t>
+  </si>
+  <si>
+    <t>Complainant-appellant</t>
+  </si>
+  <si>
+    <t>cre</t>
+  </si>
+  <si>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t>crp</t>
+  </si>
+  <si>
+    <t>Correspondent</t>
+  </si>
+  <si>
+    <t>crr</t>
+  </si>
+  <si>
+    <t>Corrector</t>
+  </si>
+  <si>
+    <t>crt</t>
+  </si>
+  <si>
+    <t>Court reporter</t>
+  </si>
+  <si>
+    <t>csl</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>csp</t>
+  </si>
+  <si>
+    <t>Consultant to a project</t>
+  </si>
+  <si>
+    <t>cst</t>
+  </si>
+  <si>
+    <t>Costume designer</t>
+  </si>
+  <si>
+    <t>ctb</t>
+  </si>
+  <si>
+    <t>Contributor</t>
+  </si>
+  <si>
+    <t>cte</t>
+  </si>
+  <si>
+    <t>Contestee-appellee</t>
+  </si>
+  <si>
+    <t>ctg</t>
+  </si>
+  <si>
+    <t>Cartographer</t>
+  </si>
+  <si>
+    <t>ctr</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>cts</t>
+  </si>
+  <si>
+    <t>Contestee</t>
+  </si>
+  <si>
+    <t>ctt</t>
+  </si>
+  <si>
+    <t>Contestee-appellant</t>
+  </si>
+  <si>
+    <t>cur</t>
+  </si>
+  <si>
+    <t>Curator</t>
+  </si>
+  <si>
+    <t>cwt</t>
+  </si>
+  <si>
+    <t>Commentator for written text</t>
+  </si>
+  <si>
+    <t>dbd</t>
+  </si>
+  <si>
+    <t>Dubbing director</t>
+  </si>
+  <si>
+    <t>dbp</t>
+  </si>
+  <si>
+    <t>Distribution place</t>
+  </si>
+  <si>
+    <t>dfd</t>
+  </si>
+  <si>
+    <t>Defendant</t>
+  </si>
+  <si>
+    <t>dfe</t>
+  </si>
+  <si>
+    <t>Defendant-appellee</t>
+  </si>
+  <si>
+    <t>dft</t>
+  </si>
+  <si>
+    <t>Defendant-appellant</t>
+  </si>
+  <si>
+    <t>dgc</t>
+  </si>
+  <si>
+    <t>Degree committee member</t>
+  </si>
+  <si>
+    <t>dgg</t>
+  </si>
+  <si>
+    <t>Degree granting institution</t>
+  </si>
+  <si>
+    <t>dgs</t>
+  </si>
+  <si>
+    <t>Degree supervisor</t>
+  </si>
+  <si>
+    <t>dis</t>
+  </si>
+  <si>
+    <t>Dissertant</t>
+  </si>
+  <si>
+    <t>djo</t>
+  </si>
+  <si>
+    <t>dln</t>
+  </si>
+  <si>
+    <t>Delineator</t>
+  </si>
+  <si>
+    <t>dnc</t>
+  </si>
+  <si>
+    <t>Dancer</t>
+  </si>
+  <si>
+    <t>dnr</t>
+  </si>
+  <si>
+    <t>Donor</t>
+  </si>
+  <si>
+    <t>dpc</t>
+  </si>
+  <si>
+    <t>Depicted</t>
+  </si>
+  <si>
+    <t>dpt</t>
+  </si>
+  <si>
+    <t>Depositor</t>
+  </si>
+  <si>
+    <t>drm</t>
+  </si>
+  <si>
+    <t>Draftsman</t>
+  </si>
+  <si>
+    <t>drt</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>dsr</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>dst</t>
+  </si>
+  <si>
+    <t>Distributor</t>
+  </si>
+  <si>
+    <t>dtc</t>
+  </si>
+  <si>
+    <t>Data contributor</t>
+  </si>
+  <si>
+    <t>dte</t>
+  </si>
+  <si>
+    <t>Dedicatee</t>
+  </si>
+  <si>
+    <t>dtm</t>
+  </si>
+  <si>
+    <t>Data manager</t>
+  </si>
+  <si>
+    <t>dto</t>
+  </si>
+  <si>
+    <t>Dedicator</t>
+  </si>
+  <si>
+    <t>dub</t>
+  </si>
+  <si>
+    <t>Dubious author</t>
+  </si>
+  <si>
+    <t>edc</t>
+  </si>
+  <si>
+    <t>Editor of compilation</t>
+  </si>
+  <si>
+    <t>edd</t>
+  </si>
+  <si>
+    <t>Editorial director</t>
+  </si>
+  <si>
+    <t>edm</t>
+  </si>
+  <si>
+    <t>Editor of moving image work</t>
+  </si>
+  <si>
+    <t>edt</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>egr</t>
+  </si>
+  <si>
+    <t>Engraver</t>
+  </si>
+  <si>
+    <t>elg</t>
+  </si>
+  <si>
+    <t>Electrician</t>
+  </si>
+  <si>
+    <t>elt</t>
+  </si>
+  <si>
+    <t>Electrotyper</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>enj</t>
+  </si>
+  <si>
+    <t>Enacting jurisdiction</t>
+  </si>
+  <si>
+    <t>etr</t>
+  </si>
+  <si>
+    <t>Etcher</t>
+  </si>
+  <si>
+    <t>evp</t>
+  </si>
+  <si>
+    <t>Event place</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>fac</t>
+  </si>
+  <si>
+    <t>Facsimilist</t>
+  </si>
+  <si>
+    <t>fds</t>
+  </si>
+  <si>
+    <t>Film distributor</t>
+  </si>
+  <si>
+    <t>fld</t>
+  </si>
+  <si>
+    <t>Field director</t>
+  </si>
+  <si>
+    <t>flm</t>
+  </si>
+  <si>
+    <t>Film editor</t>
+  </si>
+  <si>
+    <t>fmd</t>
+  </si>
+  <si>
+    <t>Film director</t>
+  </si>
+  <si>
+    <t>fmk</t>
+  </si>
+  <si>
+    <t>Filmmaker</t>
+  </si>
+  <si>
+    <t>fmo</t>
+  </si>
+  <si>
+    <t>Former owner</t>
+  </si>
+  <si>
+    <t>fmp</t>
+  </si>
+  <si>
+    <t>Film producer</t>
+  </si>
+  <si>
+    <t>fnd</t>
+  </si>
+  <si>
+    <t>Funder</t>
+  </si>
+  <si>
+    <t>fon</t>
+  </si>
+  <si>
+    <t>Founder</t>
+  </si>
+  <si>
+    <t>fpy</t>
+  </si>
+  <si>
+    <t>First party</t>
+  </si>
+  <si>
+    <t>frg</t>
+  </si>
+  <si>
+    <t>Forger</t>
+  </si>
+  <si>
+    <t>gdv</t>
+  </si>
+  <si>
+    <t>Game developer</t>
+  </si>
+  <si>
+    <t>gis</t>
+  </si>
+  <si>
+    <t>Geographic information specialist</t>
+  </si>
+  <si>
+    <t>his</t>
+  </si>
+  <si>
+    <t>Host institution</t>
+  </si>
+  <si>
+    <t>hnr</t>
+  </si>
+  <si>
+    <t>Honoree</t>
+  </si>
+  <si>
+    <t>hst</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>ill</t>
+  </si>
+  <si>
+    <t>Illustrator</t>
+  </si>
+  <si>
+    <t>ilu</t>
+  </si>
+  <si>
+    <t>Illuminator</t>
+  </si>
+  <si>
+    <t>ins</t>
+  </si>
+  <si>
+    <t>Inscriber</t>
+  </si>
+  <si>
+    <t>inv</t>
+  </si>
+  <si>
+    <t>Inventor</t>
+  </si>
+  <si>
+    <t>isb</t>
+  </si>
+  <si>
+    <t>Issuing body</t>
+  </si>
+  <si>
+    <t>itr</t>
+  </si>
+  <si>
+    <t>Instrumentalist</t>
+  </si>
+  <si>
+    <t>ive</t>
+  </si>
+  <si>
+    <t>Interviewee</t>
+  </si>
+  <si>
+    <t>ivr</t>
+  </si>
+  <si>
+    <t>Interviewer</t>
+  </si>
+  <si>
+    <t>jud</t>
+  </si>
+  <si>
+    <t>Judge</t>
+  </si>
+  <si>
+    <t>jug</t>
+  </si>
+  <si>
+    <t>Jurisdiction governed</t>
+  </si>
+  <si>
+    <t>lbr</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>lbt</t>
+  </si>
+  <si>
+    <t>Librettist</t>
+  </si>
+  <si>
+    <t>ldr</t>
+  </si>
+  <si>
+    <t>Laboratory director</t>
+  </si>
+  <si>
+    <t>led</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>lee</t>
+  </si>
+  <si>
+    <t>Libelee-appellee</t>
+  </si>
+  <si>
+    <t>lel</t>
+  </si>
+  <si>
+    <t>Libelee</t>
+  </si>
+  <si>
+    <t>len</t>
+  </si>
+  <si>
+    <t>Lender</t>
+  </si>
+  <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>Libelee-appellant</t>
+  </si>
+  <si>
+    <t>lgd</t>
+  </si>
+  <si>
+    <t>Lighting designer</t>
+  </si>
+  <si>
+    <t>lie</t>
+  </si>
+  <si>
+    <t>Libelant-appellee</t>
+  </si>
+  <si>
+    <t>lil</t>
+  </si>
+  <si>
+    <t>Libelant</t>
+  </si>
+  <si>
+    <t>lit</t>
+  </si>
+  <si>
+    <t>Libelant-appellant</t>
+  </si>
+  <si>
+    <t>lsa</t>
+  </si>
+  <si>
+    <t>Landscape architect</t>
+  </si>
+  <si>
+    <t>lse</t>
+  </si>
+  <si>
+    <t>Licensee</t>
+  </si>
+  <si>
+    <t>lso</t>
+  </si>
+  <si>
+    <t>Licensor</t>
+  </si>
+  <si>
+    <t>ltg</t>
+  </si>
+  <si>
+    <t>Lithographer</t>
+  </si>
+  <si>
+    <t>lyr</t>
+  </si>
+  <si>
+    <t>Lyricist</t>
+  </si>
+  <si>
+    <t>mcp</t>
+  </si>
+  <si>
+    <t>Music copyist</t>
+  </si>
+  <si>
+    <t>mdc</t>
+  </si>
+  <si>
+    <t>Metadata contact</t>
+  </si>
+  <si>
+    <t>med</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>mfp</t>
+  </si>
+  <si>
+    <t>Manufacture place</t>
+  </si>
+  <si>
+    <t>mfr</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>mka</t>
+  </si>
+  <si>
+    <t>Makeup artist</t>
+  </si>
+  <si>
+    <t>mod</t>
+  </si>
+  <si>
+    <t>Moderator</t>
+  </si>
+  <si>
+    <t>mon</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>mrb</t>
+  </si>
+  <si>
+    <t>Marbler</t>
+  </si>
+  <si>
+    <t>mrk</t>
+  </si>
+  <si>
+    <t>Markup editor</t>
+  </si>
+  <si>
+    <t>msd</t>
+  </si>
+  <si>
+    <t>Musical director</t>
+  </si>
+  <si>
+    <t>mte</t>
+  </si>
+  <si>
+    <t>Metal-engraver</t>
+  </si>
+  <si>
+    <t>mtk</t>
+  </si>
+  <si>
+    <t>Minute taker</t>
+  </si>
+  <si>
+    <t>mup</t>
+  </si>
+  <si>
+    <t>Music programmer</t>
+  </si>
+  <si>
+    <t>mus</t>
+  </si>
+  <si>
+    <t>Musician</t>
+  </si>
+  <si>
+    <t>mxe</t>
+  </si>
+  <si>
+    <t>Mixing engineer</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>News anchor</t>
+  </si>
+  <si>
+    <t>nrt</t>
+  </si>
+  <si>
+    <t>Narrator</t>
+  </si>
+  <si>
+    <t>onp</t>
+  </si>
+  <si>
+    <t>Onscreen participant</t>
+  </si>
+  <si>
+    <t>opn</t>
+  </si>
+  <si>
+    <t>Opponent</t>
+  </si>
+  <si>
+    <t>org</t>
+  </si>
+  <si>
+    <t>Originator</t>
+  </si>
+  <si>
+    <t>orm</t>
+  </si>
+  <si>
+    <t>Organizer</t>
+  </si>
+  <si>
+    <t>osp</t>
+  </si>
+  <si>
+    <t>Onscreen presenter</t>
+  </si>
+  <si>
+    <t>oth</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>pad</t>
+  </si>
+  <si>
+    <t>Place of address</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>Panelist</t>
+  </si>
+  <si>
+    <t>pat</t>
+  </si>
+  <si>
+    <t>Patron</t>
+  </si>
+  <si>
+    <t>pbd</t>
+  </si>
+  <si>
+    <t>Publishing director</t>
+  </si>
+  <si>
+    <t>pbl</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>pdr</t>
+  </si>
+  <si>
+    <t>Project director</t>
+  </si>
+  <si>
+    <t>pfr</t>
+  </si>
+  <si>
+    <t>Proofreader</t>
+  </si>
+  <si>
+    <t>pht</t>
+  </si>
+  <si>
+    <t>Photographer</t>
+  </si>
+  <si>
+    <t>plt</t>
+  </si>
+  <si>
+    <t>Platemaker</t>
+  </si>
+  <si>
+    <t>pma</t>
+  </si>
+  <si>
+    <t>Permitting agency</t>
+  </si>
+  <si>
+    <t>pmn</t>
+  </si>
+  <si>
+    <t>Production manager</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>Printer of plates</t>
+  </si>
+  <si>
+    <t>ppm</t>
+  </si>
+  <si>
+    <t>Papermaker</t>
+  </si>
+  <si>
+    <t>ppt</t>
+  </si>
+  <si>
+    <t>Puppeteer</t>
+  </si>
+  <si>
+    <t>pra</t>
+  </si>
+  <si>
+    <t>Praeses</t>
+  </si>
+  <si>
+    <t>prc</t>
+  </si>
+  <si>
+    <t>Process contact</t>
+  </si>
+  <si>
+    <t>prd</t>
+  </si>
+  <si>
+    <t>Production personnel</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>Presenter</t>
+  </si>
+  <si>
+    <t>prf</t>
+  </si>
+  <si>
+    <t>Performer</t>
+  </si>
+  <si>
+    <t>prg</t>
+  </si>
+  <si>
+    <t>Programmer</t>
+  </si>
+  <si>
+    <t>prm</t>
+  </si>
+  <si>
+    <t>Printmaker</t>
+  </si>
+  <si>
+    <t>prn</t>
+  </si>
+  <si>
+    <t>Production company</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>Producer</t>
+  </si>
+  <si>
+    <t>prp</t>
+  </si>
+  <si>
+    <t>Production place</t>
+  </si>
+  <si>
+    <t>prs</t>
+  </si>
+  <si>
+    <t>Production designer</t>
+  </si>
+  <si>
+    <t>prt</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>prv</t>
+  </si>
+  <si>
+    <t>Provider</t>
+  </si>
+  <si>
+    <t>pta</t>
+  </si>
+  <si>
+    <t>Patent applicant</t>
+  </si>
+  <si>
+    <t>pte</t>
+  </si>
+  <si>
+    <t>Plaintiff-appellee</t>
+  </si>
+  <si>
+    <t>ptf</t>
+  </si>
+  <si>
+    <t>Plaintiff</t>
+  </si>
+  <si>
+    <t>pth</t>
+  </si>
+  <si>
+    <t>Patent holder</t>
+  </si>
+  <si>
+    <t>ptt</t>
+  </si>
+  <si>
+    <t>Plaintiff-appellant</t>
+  </si>
+  <si>
+    <t>pup</t>
+  </si>
+  <si>
+    <t>Publication place</t>
+  </si>
+  <si>
+    <t>rap</t>
+  </si>
+  <si>
+    <t>Rapporteur</t>
+  </si>
+  <si>
+    <t>rbr</t>
+  </si>
+  <si>
+    <t>Rubricator</t>
+  </si>
+  <si>
+    <t>rcd</t>
+  </si>
+  <si>
+    <t>Recordist</t>
+  </si>
+  <si>
+    <t>rce</t>
+  </si>
+  <si>
+    <t>Recording engineer</t>
+  </si>
+  <si>
+    <t>rcp</t>
+  </si>
+  <si>
+    <t>Addressee</t>
+  </si>
+  <si>
+    <t>rdd</t>
+  </si>
+  <si>
+    <t>Radio director</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>Redaktor</t>
+  </si>
+  <si>
+    <t>ren</t>
+  </si>
+  <si>
+    <t>Renderer</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>Researcher</t>
+  </si>
+  <si>
+    <t>rev</t>
+  </si>
+  <si>
+    <t>Reviewer</t>
+  </si>
+  <si>
+    <t>rpc</t>
+  </si>
+  <si>
+    <t>Radio producer</t>
+  </si>
+  <si>
+    <t>rps</t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>rpt</t>
+  </si>
+  <si>
+    <t>Reporter</t>
+  </si>
+  <si>
+    <t>rpy</t>
+  </si>
+  <si>
+    <t>Responsible party</t>
+  </si>
+  <si>
+    <t>rse</t>
+  </si>
+  <si>
+    <t>Respondent-appellee</t>
+  </si>
+  <si>
+    <t>rsg</t>
+  </si>
+  <si>
+    <t>Restager</t>
+  </si>
+  <si>
+    <t>rsp</t>
+  </si>
+  <si>
+    <t>Respondent</t>
+  </si>
+  <si>
+    <t>rsr</t>
+  </si>
+  <si>
+    <t>Restorationist</t>
+  </si>
+  <si>
+    <t>rst</t>
+  </si>
+  <si>
+    <t>Respondent-appellant</t>
+  </si>
+  <si>
+    <t>rth</t>
+  </si>
+  <si>
+    <t>Research team head</t>
+  </si>
+  <si>
+    <t>rtm</t>
+  </si>
+  <si>
+    <t>Research team member</t>
+  </si>
+  <si>
+    <t>rxa</t>
+  </si>
+  <si>
+    <t>Remix artist</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>Scientific advisor</t>
+  </si>
+  <si>
+    <t>sce</t>
+  </si>
+  <si>
+    <t>Scenarist</t>
+  </si>
+  <si>
+    <t>scl</t>
+  </si>
+  <si>
+    <t>Sculptor</t>
+  </si>
+  <si>
+    <t>scr</t>
+  </si>
+  <si>
+    <t>Scribe</t>
+  </si>
+  <si>
+    <t>sde</t>
+  </si>
+  <si>
+    <t>Sound engineer</t>
+  </si>
+  <si>
+    <t>sds</t>
+  </si>
+  <si>
+    <t>Sound designer</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>Secretary</t>
+  </si>
+  <si>
+    <t>sfx</t>
+  </si>
+  <si>
+    <t>Special effects provider</t>
+  </si>
+  <si>
+    <t>sgd</t>
+  </si>
+  <si>
+    <t>Stage director</t>
+  </si>
+  <si>
+    <t>sgn</t>
+  </si>
+  <si>
+    <t>Signer</t>
+  </si>
+  <si>
+    <t>sht</t>
+  </si>
+  <si>
+    <t>Supporting host</t>
+  </si>
+  <si>
+    <t>sll</t>
+  </si>
+  <si>
+    <t>Seller</t>
+  </si>
+  <si>
+    <t>sng</t>
+  </si>
+  <si>
+    <t>Singer</t>
+  </si>
+  <si>
+    <t>spk</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>spn</t>
+  </si>
+  <si>
+    <t>Sponsor</t>
+  </si>
+  <si>
+    <t>spy</t>
+  </si>
+  <si>
+    <t>Second party</t>
+  </si>
+  <si>
+    <t>srv</t>
+  </si>
+  <si>
+    <t>Surveyor</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>Set designer</t>
+  </si>
+  <si>
+    <t>stg</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>stl</t>
+  </si>
+  <si>
+    <t>Storyteller</t>
+  </si>
+  <si>
+    <t>stm</t>
+  </si>
+  <si>
+    <t>Stage manager</t>
+  </si>
+  <si>
+    <t>stn</t>
+  </si>
+  <si>
+    <t>Standards body</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>Stereotyper</t>
+  </si>
+  <si>
+    <t>swd</t>
+  </si>
+  <si>
+    <t>Software developer</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>Television writer</t>
+  </si>
+  <si>
+    <t>tcd</t>
+  </si>
+  <si>
+    <t>Technical director</t>
+  </si>
+  <si>
+    <t>tch</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>ths</t>
+  </si>
+  <si>
+    <t>Thesis advisor</t>
+  </si>
+  <si>
+    <t>tld</t>
+  </si>
+  <si>
+    <t>Television director</t>
+  </si>
+  <si>
+    <t>tlg</t>
+  </si>
+  <si>
+    <t>Television guest</t>
+  </si>
+  <si>
+    <t>tlh</t>
+  </si>
+  <si>
+    <t>Television host</t>
+  </si>
+  <si>
+    <t>tlp</t>
+  </si>
+  <si>
+    <t>Television producer</t>
+  </si>
+  <si>
+    <t>trc</t>
+  </si>
+  <si>
+    <t>Transcriber</t>
+  </si>
+  <si>
+    <t>trl</t>
+  </si>
+  <si>
+    <t>Translator</t>
+  </si>
+  <si>
+    <t>tyd</t>
+  </si>
+  <si>
+    <t>Type designer</t>
+  </si>
+  <si>
+    <t>tyg</t>
+  </si>
+  <si>
+    <t>Typographer</t>
+  </si>
+  <si>
+    <t>uvp</t>
+  </si>
+  <si>
+    <t>University place</t>
+  </si>
+  <si>
+    <t>vac</t>
+  </si>
+  <si>
+    <t>Voice actor</t>
+  </si>
+  <si>
+    <t>vdg</t>
+  </si>
+  <si>
+    <t>Videographer</t>
+  </si>
+  <si>
+    <t>vfx</t>
+  </si>
+  <si>
+    <t>Visual effects provider</t>
+  </si>
+  <si>
+    <t>wac</t>
+  </si>
+  <si>
+    <t>Writer of added commentary</t>
+  </si>
+  <si>
+    <t>wal</t>
+  </si>
+  <si>
+    <t>Writer of added lyrics</t>
+  </si>
+  <si>
+    <t>wam</t>
+  </si>
+  <si>
+    <t>Writer of accompanying material</t>
+  </si>
+  <si>
+    <t>wat</t>
+  </si>
+  <si>
+    <t>Writer of added text</t>
+  </si>
+  <si>
+    <t>wdc</t>
+  </si>
+  <si>
+    <t>Woodcutter</t>
+  </si>
+  <si>
+    <t>wde</t>
+  </si>
+  <si>
+    <t>Wood engraver</t>
+  </si>
+  <si>
+    <t>wfs</t>
+  </si>
+  <si>
+    <t>Writer of film story</t>
+  </si>
+  <si>
+    <t>wft</t>
+  </si>
+  <si>
+    <t>Writer of intertitles</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>Writer of introduction</t>
+  </si>
+  <si>
+    <t>wit</t>
+  </si>
+  <si>
+    <t>Witness</t>
+  </si>
+  <si>
+    <t>wpr</t>
+  </si>
+  <si>
+    <t>Writer of preface</t>
+  </si>
+  <si>
+    <t>wst</t>
+  </si>
+  <si>
+    <t>Writer of supplementary textual content</t>
+  </si>
+  <si>
+    <t>wts</t>
+  </si>
+  <si>
+    <t>Writer of television story</t>
+  </si>
+  <si>
+    <t>-grt</t>
+  </si>
+  <si>
+    <t>-voc</t>
+  </si>
+  <si>
+    <t>Vocalist (Deprecated)</t>
+  </si>
+  <si>
+    <t>Graphic technician (Deprecated)</t>
+  </si>
+  <si>
+    <t>[Work to Work]</t>
+  </si>
+  <si>
+    <t>related work of work</t>
+  </si>
+  <si>
+    <t>abridged as</t>
+  </si>
+  <si>
+    <t>abridgement of</t>
+  </si>
+  <si>
+    <t>absorebed by</t>
+  </si>
+  <si>
+    <t>absorbed in part by</t>
+  </si>
+  <si>
+    <t>absorption in part of</t>
+  </si>
+  <si>
+    <t>abstract of</t>
+  </si>
+  <si>
+    <t>abstracted in</t>
+  </si>
+  <si>
+    <t>abstracts for</t>
+  </si>
+  <si>
+    <t>adaptation of</t>
+  </si>
+  <si>
+    <t>adapted as choreography</t>
+  </si>
+  <si>
+    <t>adapted as graphic novel</t>
+  </si>
+  <si>
+    <t>adapted as libretto</t>
+  </si>
+  <si>
+    <t>adapted as motion picture screenplay</t>
+  </si>
+  <si>
+    <t>adapted as motion picture</t>
+  </si>
+  <si>
+    <t>adapted as musical theatre</t>
+  </si>
+  <si>
+    <t>adapted as novel</t>
+  </si>
+  <si>
+    <t>adapted as opera</t>
+  </si>
+  <si>
+    <t>adapted as oratorio</t>
+  </si>
+  <si>
+    <t>adapted as radio program</t>
+  </si>
+  <si>
+    <t>adapted as radio script</t>
+  </si>
+  <si>
+    <t>adapted as screenplay</t>
+  </si>
+  <si>
+    <t>adapted as television program</t>
+  </si>
+  <si>
+    <t>adapted as television screenplay</t>
+  </si>
+  <si>
+    <t>adapted as video game</t>
+  </si>
+  <si>
+    <t>adapted as video screenplay</t>
+  </si>
+  <si>
+    <t>adapted as video</t>
+  </si>
+  <si>
+    <t>adapted in verse as</t>
+  </si>
+  <si>
+    <t>addenda to</t>
+  </si>
+  <si>
+    <t>addenda</t>
+  </si>
+  <si>
+    <t>analysis of</t>
+  </si>
+  <si>
+    <t>appendix to</t>
+  </si>
+  <si>
+    <t>aumentation of</t>
+  </si>
+  <si>
+    <t>augmented by</t>
+  </si>
+  <si>
+    <t>based on</t>
+  </si>
+  <si>
+    <t>cadenza composed for</t>
+  </si>
+  <si>
+    <t>cadenza</t>
+  </si>
+  <si>
+    <t>version in different format</t>
+  </si>
+  <si>
+    <t>version in different format of</t>
+  </si>
+  <si>
+    <t>catalogue of</t>
+  </si>
+  <si>
+    <t>catalogue</t>
+  </si>
+  <si>
+    <t>choreographic adaptation of</t>
+  </si>
+  <si>
+    <t>choreography for</t>
+  </si>
+  <si>
+    <t>choreography</t>
+  </si>
+  <si>
+    <t>commemoration</t>
+  </si>
+  <si>
+    <t>ommemoration of</t>
+  </si>
+  <si>
+    <t>commentary on</t>
+  </si>
+  <si>
+    <t>complemented by</t>
+  </si>
+  <si>
+    <t>concordance to</t>
+  </si>
+  <si>
+    <t>concordance</t>
+  </si>
+  <si>
+    <t>continuation of</t>
+  </si>
+  <si>
+    <t>continued by</t>
+  </si>
+  <si>
+    <t>critique of</t>
+  </si>
+  <si>
+    <t>derivative work</t>
+  </si>
+  <si>
+    <t>digest of</t>
+  </si>
+  <si>
+    <t>digested as</t>
+  </si>
+  <si>
+    <t>dramatization of</t>
+  </si>
+  <si>
+    <t>dramatized as</t>
+  </si>
+  <si>
+    <t>errata to</t>
+  </si>
+  <si>
+    <t>evaluation of</t>
+  </si>
+  <si>
+    <t>expanded as</t>
+  </si>
+  <si>
+    <t>expanded version of</t>
+  </si>
+  <si>
+    <t>finding aid for</t>
+  </si>
+  <si>
+    <t>finding aid</t>
+  </si>
+  <si>
+    <t>free translation of</t>
+  </si>
+  <si>
+    <t>freely translated as</t>
+  </si>
+  <si>
+    <t>graphic novelization of</t>
+  </si>
+  <si>
+    <t>guide to</t>
+  </si>
+  <si>
+    <t>guide</t>
+  </si>
+  <si>
+    <t>illustrations for</t>
+  </si>
+  <si>
+    <t>illustrations</t>
+  </si>
+  <si>
+    <t>imitated as</t>
+  </si>
+  <si>
+    <t>imitation of</t>
+  </si>
+  <si>
+    <t>incidental music for</t>
+  </si>
+  <si>
+    <t>incidental music</t>
+  </si>
+  <si>
+    <t>index to</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>indexed in</t>
+  </si>
+  <si>
+    <t>indexing for</t>
+  </si>
+  <si>
+    <t>inspiration for</t>
+  </si>
+  <si>
+    <t>inspired by</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>issue of</t>
+  </si>
+  <si>
+    <t>language version</t>
+  </si>
+  <si>
+    <t>language version of</t>
+  </si>
+  <si>
+    <t>libretto based on</t>
+  </si>
+  <si>
+    <t>libretto for</t>
+  </si>
+  <si>
+    <t>libretto</t>
+  </si>
+  <si>
+    <t>lyrics for</t>
+  </si>
+  <si>
+    <t>lyrics</t>
+  </si>
+  <si>
+    <t>merged to form***</t>
+  </si>
+  <si>
+    <t>merger of***</t>
+  </si>
+  <si>
+    <t>modified by variation as</t>
+  </si>
+  <si>
+    <t>motion picture adaptation of</t>
+  </si>
+  <si>
+    <t>motion picture music</t>
+  </si>
+  <si>
+    <t>motion picture screenplay based on</t>
+  </si>
+  <si>
+    <t>motion picture screenplay</t>
+  </si>
+  <si>
+    <t>music for motion picture</t>
+  </si>
+  <si>
+    <t>music for radio program</t>
+  </si>
+  <si>
+    <t>music for television program</t>
+  </si>
+  <si>
+    <t>music for video</t>
+  </si>
+  <si>
+    <t>music for</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>musical setting of</t>
+  </si>
+  <si>
+    <t>musical theatre adaptation of</t>
+  </si>
+  <si>
+    <t>novelization of</t>
+  </si>
+  <si>
+    <t>opera adaptation of</t>
+  </si>
+  <si>
+    <t>oratorio adaptation of</t>
+  </si>
+  <si>
+    <t>paraphrase of</t>
+  </si>
+  <si>
+    <t>paraphrased as</t>
+  </si>
+  <si>
+    <t>parodied as</t>
+  </si>
+  <si>
+    <t>parody of</t>
+  </si>
+  <si>
+    <t>part of</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>preceded by</t>
+  </si>
+  <si>
+    <t>prequel</t>
+  </si>
+  <si>
+    <t>radio adpatation of</t>
+  </si>
+  <si>
+    <t>radio program music</t>
+  </si>
+  <si>
+    <t>radio script based on</t>
+  </si>
+  <si>
+    <t>radio script</t>
+  </si>
+  <si>
+    <t>regional version</t>
+  </si>
+  <si>
+    <t>regional version of</t>
+  </si>
+  <si>
+    <t>remade as</t>
+  </si>
+  <si>
+    <t>remake of</t>
+  </si>
+  <si>
+    <t>replaced by</t>
+  </si>
+  <si>
+    <t>replaced in part by</t>
+  </si>
+  <si>
+    <t>replacement in part of</t>
+  </si>
+  <si>
+    <t>replacement of</t>
+  </si>
+  <si>
+    <t>review of</t>
+  </si>
+  <si>
+    <t>screenplay based on</t>
+  </si>
+  <si>
+    <t>screenplay for motion picture</t>
+  </si>
+  <si>
+    <t>screenplay for television program</t>
+  </si>
+  <si>
+    <t>screenpalay for video</t>
+  </si>
+  <si>
+    <t>screenplay for</t>
+  </si>
+  <si>
+    <t>screenplay</t>
+  </si>
+  <si>
+    <t>script for radio program</t>
+  </si>
+  <si>
+    <t>separated from</t>
+  </si>
+  <si>
+    <t>separated into</t>
+  </si>
+  <si>
+    <t>sequel</t>
+  </si>
+  <si>
+    <t>sequential version</t>
+  </si>
+  <si>
+    <t>sequential version of</t>
+  </si>
+  <si>
+    <t>serialized version</t>
+  </si>
+  <si>
+    <t>serialized version of</t>
+  </si>
+  <si>
+    <t>set to music as</t>
+  </si>
+  <si>
+    <t>sounds for</t>
+  </si>
+  <si>
+    <t>sounds</t>
+  </si>
+  <si>
+    <t>special issue</t>
+  </si>
+  <si>
+    <t>special issue of</t>
+  </si>
+  <si>
+    <t>split from</t>
+  </si>
+  <si>
+    <t>split into</t>
+  </si>
+  <si>
+    <t>spoken word for</t>
+  </si>
+  <si>
+    <t>spoken word</t>
+  </si>
+  <si>
+    <t>static version</t>
+  </si>
+  <si>
+    <t>static version of</t>
+  </si>
+  <si>
+    <t>subject of</t>
+  </si>
+  <si>
+    <t>subseries</t>
+  </si>
+  <si>
+    <t>subseries of</t>
+  </si>
+  <si>
+    <t>succeeded by</t>
+  </si>
+  <si>
+    <t>summarized as</t>
+  </si>
+  <si>
+    <t>summary of</t>
+  </si>
+  <si>
+    <t>supplement to</t>
+  </si>
+  <si>
+    <t>television adaptation of</t>
+  </si>
+  <si>
+    <t>television program music</t>
+  </si>
+  <si>
+    <t>television screenplay based on</t>
+  </si>
+  <si>
+    <t>television screenplay</t>
+  </si>
+  <si>
+    <t>text for</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>transformation</t>
+  </si>
+  <si>
+    <t>transformation by audience</t>
+  </si>
+  <si>
+    <t>transformation by audience of</t>
+  </si>
+  <si>
+    <t>transformation by extension plan</t>
+  </si>
+  <si>
+    <t>transformation by extension plan of</t>
+  </si>
+  <si>
+    <t>transformation by genre</t>
+  </si>
+  <si>
+    <t>transformation by genre of</t>
+  </si>
+  <si>
+    <t>transformation by policy</t>
+  </si>
+  <si>
+    <t>transformation by policy of</t>
+  </si>
+  <si>
+    <t>transformation by style of</t>
+  </si>
+  <si>
+    <t>transformation by style</t>
+  </si>
+  <si>
+    <t>transformation of</t>
+  </si>
+  <si>
+    <t>variations based on</t>
+  </si>
+  <si>
+    <t>verse adaptation of</t>
+  </si>
+  <si>
+    <t>video adaptation of</t>
+  </si>
+  <si>
+    <t>video game adaptation of</t>
+  </si>
+  <si>
+    <t>video music</t>
+  </si>
+  <si>
+    <t>video screenplay based on</t>
+  </si>
+  <si>
+    <t>video screenplay</t>
+  </si>
+  <si>
+    <t>analysed in</t>
+  </si>
+  <si>
+    <t>commentary in</t>
+  </si>
+  <si>
+    <t>critiqued in</t>
+  </si>
+  <si>
+    <t>described in</t>
+  </si>
+  <si>
+    <t>evaluated in</t>
+  </si>
+  <si>
+    <t>reviewed in</t>
+  </si>
+  <si>
+    <t>[Work to Expression]</t>
+  </si>
+  <si>
+    <t>related expression of</t>
+  </si>
+  <si>
+    <t>expression of</t>
+  </si>
+  <si>
+    <t>representative expression</t>
+  </si>
+  <si>
+    <t>[Expression to Work]</t>
+  </si>
+  <si>
+    <t>related work</t>
+  </si>
+  <si>
+    <t>analysied in</t>
+  </si>
+  <si>
+    <t>representative expression of</t>
+  </si>
+  <si>
+    <t>work expressed</t>
+  </si>
+  <si>
+    <t>Shouldn't this just be "expression"? "Is expression of" would need an expression as its subject and work as its object.</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Equivalent Label</t>
+  </si>
+  <si>
+    <t>[related x? creator?]</t>
+  </si>
+  <si>
+    <t>favor more specific terms (screenwriter, librettist, etc.)?</t>
+  </si>
+  <si>
+    <t>[speaker? Narrator? Host?]</t>
+  </si>
+  <si>
+    <t>[related x (of item)?]</t>
+  </si>
+  <si>
+    <t>[writer of preface^writer of introduction^writer of foreword^writer of supplementary textual content^writer of added text]</t>
+  </si>
+  <si>
+    <t>[writer of supplementary textual content^writer of added text^writer of afterword^writer of postface]</t>
+  </si>
+  <si>
+    <t>[screenwriter?]</t>
+  </si>
+  <si>
+    <t>[aggregator^compiler^editor]</t>
+  </si>
+  <si>
+    <t>[restorationist?]</t>
+  </si>
+  <si>
+    <t>software designer</t>
+  </si>
+  <si>
+    <t>producer of unpublished manifestation</t>
+  </si>
+  <si>
+    <t>[performer^contributor of music]</t>
+  </si>
+  <si>
+    <t>onscreen presenter</t>
   </si>
 </sst>
 </file>
@@ -2199,9 +4658,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2519,8 +4979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEE65FB-C617-469B-8875-0170082DAEA6}">
   <dimension ref="A1:H203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7372,6 +9832,3773 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F12BAC-9A30-4305-86EA-C3B11800714B}">
+  <dimension ref="A1:I219"/>
+  <sheetViews>
+    <sheetView topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="I205" sqref="I205"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1505</v>
+      </c>
+      <c r="I205" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A70CA9A-5FF9-4E86-A663-A58967A4F044}">
+  <dimension ref="A1:D302"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="C191" sqref="C191"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>712</v>
+      </c>
+      <c r="B3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>714</v>
+      </c>
+      <c r="B4" t="s">
+        <v>715</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>716</v>
+      </c>
+      <c r="B5" t="s">
+        <v>717</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>718</v>
+      </c>
+      <c r="B6" t="s">
+        <v>719</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>720</v>
+      </c>
+      <c r="B7" t="s">
+        <v>721</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>722</v>
+      </c>
+      <c r="B8" t="s">
+        <v>723</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>724</v>
+      </c>
+      <c r="B9" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>726</v>
+      </c>
+      <c r="B10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>728</v>
+      </c>
+      <c r="B11" t="s">
+        <v>729</v>
+      </c>
+      <c r="C11" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>730</v>
+      </c>
+      <c r="B12" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>732</v>
+      </c>
+      <c r="B13" t="s">
+        <v>733</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>734</v>
+      </c>
+      <c r="B14" t="s">
+        <v>735</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>736</v>
+      </c>
+      <c r="B15" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>738</v>
+      </c>
+      <c r="B16" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>740</v>
+      </c>
+      <c r="B17" t="s">
+        <v>741</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>742</v>
+      </c>
+      <c r="B18" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>744</v>
+      </c>
+      <c r="B19" t="s">
+        <v>745</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>746</v>
+      </c>
+      <c r="B20" t="s">
+        <v>747</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>748</v>
+      </c>
+      <c r="B21" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>750</v>
+      </c>
+      <c r="B22" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>752</v>
+      </c>
+      <c r="B23" t="s">
+        <v>753</v>
+      </c>
+      <c r="C23" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>754</v>
+      </c>
+      <c r="B24" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>756</v>
+      </c>
+      <c r="B25" t="s">
+        <v>757</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>758</v>
+      </c>
+      <c r="B26" t="s">
+        <v>759</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>760</v>
+      </c>
+      <c r="B27" t="s">
+        <v>761</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>762</v>
+      </c>
+      <c r="B28" t="s">
+        <v>763</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>764</v>
+      </c>
+      <c r="B29" t="s">
+        <v>765</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>766</v>
+      </c>
+      <c r="B30" t="s">
+        <v>767</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>768</v>
+      </c>
+      <c r="B31" t="s">
+        <v>769</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>770</v>
+      </c>
+      <c r="B32" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>772</v>
+      </c>
+      <c r="B33" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>774</v>
+      </c>
+      <c r="B34" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>776</v>
+      </c>
+      <c r="B35" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>778</v>
+      </c>
+      <c r="B36" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>780</v>
+      </c>
+      <c r="B37" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>782</v>
+      </c>
+      <c r="B38" t="s">
+        <v>783</v>
+      </c>
+      <c r="C38" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>784</v>
+      </c>
+      <c r="B39" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>786</v>
+      </c>
+      <c r="B40" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>788</v>
+      </c>
+      <c r="B41" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>790</v>
+      </c>
+      <c r="B42" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>792</v>
+      </c>
+      <c r="B43" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>794</v>
+      </c>
+      <c r="B44" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>796</v>
+      </c>
+      <c r="B45" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>798</v>
+      </c>
+      <c r="B46" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="e">
+        <f>-clb</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B47" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>801</v>
+      </c>
+      <c r="B48" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>803</v>
+      </c>
+      <c r="B49" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>805</v>
+      </c>
+      <c r="B50" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>807</v>
+      </c>
+      <c r="B51" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>809</v>
+      </c>
+      <c r="B52" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>811</v>
+      </c>
+      <c r="B53" t="s">
+        <v>812</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>813</v>
+      </c>
+      <c r="B54" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>815</v>
+      </c>
+      <c r="B55" t="s">
+        <v>816</v>
+      </c>
+      <c r="C55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>817</v>
+      </c>
+      <c r="B56" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>819</v>
+      </c>
+      <c r="B57" t="s">
+        <v>820</v>
+      </c>
+      <c r="C57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>821</v>
+      </c>
+      <c r="B58" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>823</v>
+      </c>
+      <c r="B59" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>825</v>
+      </c>
+      <c r="B60" t="s">
+        <v>826</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>827</v>
+      </c>
+      <c r="B61" t="s">
+        <v>828</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>829</v>
+      </c>
+      <c r="B62" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>831</v>
+      </c>
+      <c r="B63" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>833</v>
+      </c>
+      <c r="B64" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>835</v>
+      </c>
+      <c r="B65" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>837</v>
+      </c>
+      <c r="B66" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>839</v>
+      </c>
+      <c r="B67" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>841</v>
+      </c>
+      <c r="B68" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>843</v>
+      </c>
+      <c r="B69" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>845</v>
+      </c>
+      <c r="B70" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>847</v>
+      </c>
+      <c r="B71" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>849</v>
+      </c>
+      <c r="B72" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>851</v>
+      </c>
+      <c r="B73" t="s">
+        <v>852</v>
+      </c>
+      <c r="C73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>853</v>
+      </c>
+      <c r="B74" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>855</v>
+      </c>
+      <c r="B75" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>857</v>
+      </c>
+      <c r="B76" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>859</v>
+      </c>
+      <c r="B77" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>861</v>
+      </c>
+      <c r="B78" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>863</v>
+      </c>
+      <c r="B79" t="s">
+        <v>864</v>
+      </c>
+      <c r="C79" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>865</v>
+      </c>
+      <c r="B80" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>867</v>
+      </c>
+      <c r="B81" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>869</v>
+      </c>
+      <c r="B82" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>871</v>
+      </c>
+      <c r="B83" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>873</v>
+      </c>
+      <c r="B84" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>875</v>
+      </c>
+      <c r="B85" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>877</v>
+      </c>
+      <c r="B86" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>879</v>
+      </c>
+      <c r="B87" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>881</v>
+      </c>
+      <c r="B88" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>883</v>
+      </c>
+      <c r="B89" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>885</v>
+      </c>
+      <c r="B90" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>887</v>
+      </c>
+      <c r="B91" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>889</v>
+      </c>
+      <c r="B92" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>891</v>
+      </c>
+      <c r="B93" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>893</v>
+      </c>
+      <c r="B94" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>895</v>
+      </c>
+      <c r="B95" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>897</v>
+      </c>
+      <c r="B96" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>899</v>
+      </c>
+      <c r="B97" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>900</v>
+      </c>
+      <c r="B98" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>902</v>
+      </c>
+      <c r="B99" t="s">
+        <v>903</v>
+      </c>
+      <c r="C99" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>904</v>
+      </c>
+      <c r="B100" t="s">
+        <v>905</v>
+      </c>
+      <c r="C100" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>906</v>
+      </c>
+      <c r="B101" t="s">
+        <v>907</v>
+      </c>
+      <c r="C101" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>908</v>
+      </c>
+      <c r="B102" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>910</v>
+      </c>
+      <c r="B103" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>912</v>
+      </c>
+      <c r="B104" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>914</v>
+      </c>
+      <c r="B105" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>916</v>
+      </c>
+      <c r="B106" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>918</v>
+      </c>
+      <c r="B107" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>920</v>
+      </c>
+      <c r="B108" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>922</v>
+      </c>
+      <c r="B109" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>924</v>
+      </c>
+      <c r="B110" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>926</v>
+      </c>
+      <c r="B111" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>928</v>
+      </c>
+      <c r="B112" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>930</v>
+      </c>
+      <c r="B113" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>932</v>
+      </c>
+      <c r="B114" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>934</v>
+      </c>
+      <c r="B115" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>936</v>
+      </c>
+      <c r="B116" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>938</v>
+      </c>
+      <c r="B117" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>940</v>
+      </c>
+      <c r="B118" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>942</v>
+      </c>
+      <c r="B119" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>944</v>
+      </c>
+      <c r="B120" t="s">
+        <v>945</v>
+      </c>
+      <c r="C120" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>946</v>
+      </c>
+      <c r="B121" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>948</v>
+      </c>
+      <c r="B122" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>950</v>
+      </c>
+      <c r="B123" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>952</v>
+      </c>
+      <c r="B124" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>954</v>
+      </c>
+      <c r="B125" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>956</v>
+      </c>
+      <c r="B126" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>958</v>
+      </c>
+      <c r="B127" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>960</v>
+      </c>
+      <c r="B128" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>962</v>
+      </c>
+      <c r="B129" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>964</v>
+      </c>
+      <c r="B130" t="s">
+        <v>965</v>
+      </c>
+      <c r="C130" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>966</v>
+      </c>
+      <c r="B131" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>968</v>
+      </c>
+      <c r="B132" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>970</v>
+      </c>
+      <c r="B133" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>972</v>
+      </c>
+      <c r="B134" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>974</v>
+      </c>
+      <c r="B135" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>976</v>
+      </c>
+      <c r="B136" t="s">
+        <v>977</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>978</v>
+      </c>
+      <c r="B137" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>980</v>
+      </c>
+      <c r="B139" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>982</v>
+      </c>
+      <c r="B140" t="s">
+        <v>983</v>
+      </c>
+      <c r="C140" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>984</v>
+      </c>
+      <c r="B141" t="s">
+        <v>985</v>
+      </c>
+      <c r="C141" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>986</v>
+      </c>
+      <c r="B142" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>988</v>
+      </c>
+      <c r="B143" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>990</v>
+      </c>
+      <c r="B144" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>992</v>
+      </c>
+      <c r="B145" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>994</v>
+      </c>
+      <c r="B146" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>996</v>
+      </c>
+      <c r="B147" t="s">
+        <v>997</v>
+      </c>
+      <c r="C147" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>998</v>
+      </c>
+      <c r="B148" t="s">
+        <v>999</v>
+      </c>
+      <c r="C148" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C149" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C150" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C153" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C168" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C173" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C186" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C187" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C193" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C195" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C208" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C211" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C212" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C215" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C216" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C229" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C248" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C257" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C261" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C268" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C282" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C286" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C289" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C290" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C298" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C301" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7383,6 +13610,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004222493D04F36E498343FD1F263FE457" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dff6174afa9775cdde48c5192d5c745c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="36354d7e-163f-40eb-b978-cce71771c1f1" xmlns:ns4="14a80677-60f4-4cc2-8127-0186e2cf64a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e7e071efaea11a250735ad30ec12af2e" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7646,15 +13882,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C82FB17-50E6-4BA2-9476-82AA38D7CF00}">
   <ds:schemaRefs>
@@ -7674,6 +13901,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B72B49D-CCC7-45F7-8526-1F385CB54990}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CCA7AF7-7753-432F-91DC-8CC84E5DC301}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7691,12 +13926,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B72B49D-CCC7-45F7-8526-1F385CB54990}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/relationship_mapping.xlsx
+++ b/relationship_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kek67197.MYID\AppData\Roaming\OCLC\Connex\Macros\Projects\RelationshipLabels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4CED73-6B00-41CB-850D-8C8723C72C7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D5D718-4418-472E-AAB4-FBD284D28433}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="2" xr2:uid="{88E9D25B-84E2-4D1B-9CF6-0F03DEA062E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="1" xr2:uid="{88E9D25B-84E2-4D1B-9CF6-0F03DEA062E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Agents" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="1529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="1555">
   <si>
     <t>creator</t>
   </si>
@@ -3971,9 +3971,6 @@
     <t>abridgement of</t>
   </si>
   <si>
-    <t>absorebed by</t>
-  </si>
-  <si>
     <t>absorbed in part by</t>
   </si>
   <si>
@@ -4544,9 +4541,6 @@
     <t>related expression of</t>
   </si>
   <si>
-    <t>expression of</t>
-  </si>
-  <si>
     <t>representative expression</t>
   </si>
   <si>
@@ -4556,18 +4550,12 @@
     <t>related work</t>
   </si>
   <si>
-    <t>analysied in</t>
-  </si>
-  <si>
     <t>representative expression of</t>
   </si>
   <si>
     <t>work expressed</t>
   </si>
   <si>
-    <t>Shouldn't this just be "expression"? "Is expression of" would need an expression as its subject and work as its object.</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
@@ -4614,6 +4602,96 @@
   </si>
   <si>
     <t>onscreen presenter</t>
+  </si>
+  <si>
+    <t>[Expression to Expression]</t>
+  </si>
+  <si>
+    <t>related expression</t>
+  </si>
+  <si>
+    <t>absorbed by</t>
+  </si>
+  <si>
+    <t>absorption of</t>
+  </si>
+  <si>
+    <t>abstracted as</t>
+  </si>
+  <si>
+    <t>adapted as</t>
+  </si>
+  <si>
+    <t>aggregated by</t>
+  </si>
+  <si>
+    <t>aggregates</t>
+  </si>
+  <si>
+    <t>appendix</t>
+  </si>
+  <si>
+    <t>arranged as</t>
+  </si>
+  <si>
+    <t>arrangement of</t>
+  </si>
+  <si>
+    <t>augmentation of</t>
+  </si>
+  <si>
+    <t>deriviative expression</t>
+  </si>
+  <si>
+    <t>dubbed version</t>
+  </si>
+  <si>
+    <t>dubbed version of</t>
+  </si>
+  <si>
+    <t>errata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expanded as </t>
+  </si>
+  <si>
+    <t>merger of</t>
+  </si>
+  <si>
+    <t>merged to form</t>
+  </si>
+  <si>
+    <t>revised as</t>
+  </si>
+  <si>
+    <t>revision of</t>
+  </si>
+  <si>
+    <t>screenplay for video</t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t>translated as</t>
+  </si>
+  <si>
+    <t>translation of</t>
+  </si>
+  <si>
+    <t>expression of [Shouldn't this just be "expression"? "Is expression of" would need an expression as its subject and work as its object.]</t>
+  </si>
+  <si>
+    <t>WWIRI</t>
+  </si>
+  <si>
+    <t>WEIRI</t>
+  </si>
+  <si>
+    <t>EWIRI</t>
+  </si>
+  <si>
+    <t>EEIRI</t>
   </si>
 </sst>
 </file>
@@ -9834,1110 +9912,1588 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F12BAC-9A30-4305-86EA-C3B11800714B}">
-  <dimension ref="A1:I219"/>
+  <dimension ref="A1:H219"/>
   <sheetViews>
-    <sheetView topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="I205" sqref="I205"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="4" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B6" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B9" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B10" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B12" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B14" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B15" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B16" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B18" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B19" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B20" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B21" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B22" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B23" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B24" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B25" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B26" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B27" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>1330</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B28" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B29" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B30" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B31" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B33" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B34" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B35" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B37" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C41" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B43" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B46" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B47" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B48" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B49" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B50" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B53" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B55" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B57" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="C61" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B62" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B64" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B65" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B66" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="C68" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B73" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B74" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B75" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B76" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B80" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="C82" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B83" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B84" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B87" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B88" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B89" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B90" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B92" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B94" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="B95" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B96" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B98" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="B100" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="B101" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="B102" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="B109" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="B111" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="B114" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="B115" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="B116" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="B117" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="B118" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="B119" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B120" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="B123" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="B124" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B125" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="B126" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="B127" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="B128" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="B129" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="B130" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="B131" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="B132" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="B133" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>1420</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="B134" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="B135" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="B137" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>1424</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="B138" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="B139" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>1426</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="B140" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="B141" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="B142" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="B143" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="B146" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="B147" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="B148" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="B149" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="B150" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="B151" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="C155" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="B159" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="B161" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>1441</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="B162" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="B163" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>1445</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="B164" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>1446</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="B165" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>1447</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="B166" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="B167" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>1450</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>1451</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="B172" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="B177" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="B178" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>66</v>
+      </c>
+      <c r="C183" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>1464</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="D184" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>1467</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="B187" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="B188" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="B189" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="B191" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="B192" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="B193" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>1473</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="B194" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="B195" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>1477</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>1485</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>1486</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>1487</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="B212" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="B213" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="B214" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>1492</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="B216" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="B217" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>1505</v>
-      </c>
-      <c r="I205" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="B218" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
         <v>1508</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>1511</v>
       </c>
     </row>
   </sheetData>
@@ -10949,7 +11505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A70CA9A-5FF9-4E86-A663-A58967A4F044}">
   <dimension ref="A1:D302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+    <sheetView topLeftCell="A171" workbookViewId="0">
       <selection activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
@@ -10963,13 +11519,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="B1" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="C1" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10991,7 +11547,7 @@
         <v>713</v>
       </c>
       <c r="C3" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -11027,7 +11583,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -11038,7 +11594,7 @@
         <v>721</v>
       </c>
       <c r="C7" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -11049,7 +11605,7 @@
         <v>723</v>
       </c>
       <c r="C8" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -11212,7 +11768,7 @@
         <v>757</v>
       </c>
       <c r="C25" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -11223,7 +11779,7 @@
         <v>759</v>
       </c>
       <c r="C26" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -11245,7 +11801,7 @@
         <v>763</v>
       </c>
       <c r="C28" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -11526,7 +12082,7 @@
         <v>826</v>
       </c>
       <c r="C60" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -11537,7 +12093,7 @@
         <v>828</v>
       </c>
       <c r="C61" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -12164,7 +12720,7 @@
         <v>977</v>
       </c>
       <c r="C136" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -12455,7 +13011,7 @@
         <v>1041</v>
       </c>
       <c r="C169" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -12573,7 +13129,7 @@
         <v>1069</v>
       </c>
       <c r="C183" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -12646,7 +13202,7 @@
         <v>1085</v>
       </c>
       <c r="C191" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -13164,7 +13720,7 @@
         <v>1207</v>
       </c>
       <c r="C252" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -13600,16 +14156,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_activity xmlns="36354d7e-163f-40eb-b978-cce71771c1f1" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -13618,7 +14164,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004222493D04F36E498343FD1F263FE457" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dff6174afa9775cdde48c5192d5c745c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="36354d7e-163f-40eb-b978-cce71771c1f1" xmlns:ns4="14a80677-60f4-4cc2-8127-0186e2cf64a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e7e071efaea11a250735ad30ec12af2e" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -13882,25 +14428,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C82FB17-50E6-4BA2-9476-82AA38D7CF00}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="14a80677-60f4-4cc2-8127-0186e2cf64a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="36354d7e-163f-40eb-b978-cce71771c1f1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_activity xmlns="36354d7e-163f-40eb-b978-cce71771c1f1" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B72B49D-CCC7-45F7-8526-1F385CB54990}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -13908,7 +14446,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CCA7AF7-7753-432F-91DC-8CC84E5DC301}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13926,4 +14464,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C82FB17-50E6-4BA2-9476-82AA38D7CF00}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="14a80677-60f4-4cc2-8127-0186e2cf64a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="36354d7e-163f-40eb-b978-cce71771c1f1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/relationship_mapping.xlsx
+++ b/relationship_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kek67197.MYID\AppData\Roaming\OCLC\Connex\Macros\Projects\RelationshipLabels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D5D718-4418-472E-AAB4-FBD284D28433}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FA6977-E4E0-4A13-84FE-94A0DED8029D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="1" xr2:uid="{88E9D25B-84E2-4D1B-9CF6-0F03DEA062E6}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="1555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="1581">
   <si>
     <t>creator</t>
   </si>
@@ -4692,6 +4692,84 @@
   </si>
   <si>
     <t>EEIRI</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10198</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10167</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10125</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10145</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10146</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10225</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10224</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10126</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10107</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10089</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10193</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10142</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10155</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10091</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10248</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10247</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10251</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10252</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10113</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10189</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10165</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10030</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10094</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10025</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10235</t>
   </si>
 </sst>
 </file>
@@ -4715,15 +4793,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4731,15 +4815,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9915,1588 +10017,1708 @@
   <dimension ref="A1:H219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1"/>
-    <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="31.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="41" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="27" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>1310</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1525</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1502</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>1505</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>1551</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>1552</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>1553</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1526</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>1577</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>1506</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>1577</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>1311</v>
       </c>
+      <c r="E4" s="5" t="s">
+        <v>1555</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>1503</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>1577</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>1312</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>1312</v>
       </c>
+      <c r="E6" s="5" t="s">
+        <v>1556</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>1313</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>1313</v>
       </c>
+      <c r="E7" s="5" t="s">
+        <v>1557</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>1527</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>1527</v>
       </c>
+      <c r="E8" s="5" t="s">
+        <v>1558</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>1314</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>1314</v>
       </c>
+      <c r="E9" s="5" t="s">
+        <v>1559</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="4" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>1528</v>
+      <c r="E11" s="5" t="s">
+        <v>1560</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>1316</v>
       </c>
+      <c r="E12" s="5" t="s">
+        <v>1562</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="A13" s="3" t="s">
         <v>1529</v>
       </c>
+      <c r="B13" s="4" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>1563</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>1317</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>1317</v>
       </c>
+      <c r="E14" s="5" t="s">
+        <v>1564</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>1318</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>1318</v>
       </c>
+      <c r="E15" s="5" t="s">
+        <v>1565</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>1319</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="E16" s="5" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17" s="4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="E18" s="5" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>1321</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="E19" s="5" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>1322</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="E20" s="5" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>1323</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="E21" s="5" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>1324</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="E22" s="5" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="E23" s="5" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>1326</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>1327</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>1328</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>1329</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>1330</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>1331</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>1332</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>1333</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>1334</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>1335</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>1336</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>1336</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>1337</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>1337</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>1339</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>1339</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>1338</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>1338</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="B38" s="4" t="s">
         <v>1531</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>1532</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="3" t="s">
         <v>1496</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="4" t="s">
         <v>1496</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>1340</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="4" t="s">
         <v>1340</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="B42" s="4" t="s">
         <v>1533</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>1341</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
         <v>1341</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="B44" s="4" t="s">
         <v>1534</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="B45" s="4" t="s">
         <v>1535</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="3" t="s">
         <v>1342</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="4" t="s">
         <v>1536</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="3" t="s">
         <v>1343</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="4" t="s">
         <v>1343</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="3" t="s">
         <v>1344</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="4" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>1345</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="4" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>1346</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="4" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>1349</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="4" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>1350</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="4" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>1351</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="4" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>1353</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="4" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="E56" s="5" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>1352</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="4" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="E57" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>1497</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="4" t="s">
         <v>1497</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>1356</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="4" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>1357</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="4" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>1359</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="4" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>1358</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="4" t="s">
         <v>1358</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="3" t="s">
         <v>1360</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="4" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="3" t="s">
         <v>1361</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="4" t="s">
         <v>1361</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="3" t="s">
         <v>1498</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="4" t="s">
         <v>1498</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="3" t="s">
         <v>1362</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="4" t="s">
         <v>1362</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="3" t="s">
         <v>1363</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+      <c r="B70" s="4" t="s">
         <v>1537</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="3" t="s">
         <v>1499</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="4" t="s">
         <v>1499</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="3" t="s">
         <v>1364</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="4" t="s">
         <v>1364</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="3" t="s">
         <v>1365</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="4" t="s">
         <v>1365</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="4" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="3" t="s">
         <v>1367</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="4" t="s">
         <v>1367</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+      <c r="B77" s="4" t="s">
         <v>1538</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+      <c r="B78" s="4" t="s">
         <v>1539</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="3" t="s">
         <v>1540</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="4" t="s">
         <v>1540</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="3" t="s">
         <v>1368</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="4" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>1500</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="4" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>1369</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="4" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>1370</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="4" t="s">
         <v>1541</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>1371</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="4" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C85" s="4" t="s">
         <v>1550</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>1373</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="4" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>1372</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="4" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>1374</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="4" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>1375</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="4" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>1376</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="4" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="E90" s="5" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>1378</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="4" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>1377</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="4" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>1380</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="4" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>1379</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="4" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>1381</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="4" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
         <v>1382</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="4" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>1384</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="4" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>1383</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="4" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>1386</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="4" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>1385</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="4" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>1387</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="4" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>1388</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="4" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>1395</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="4" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="E109" s="5" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>1397</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="4" t="s">
         <v>1397</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="E110" s="5" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
         <v>1396</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="4" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="E111" s="5" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="3" t="s">
         <v>1399</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="3" t="s">
         <v>1400</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="4" t="s">
         <v>1543</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="3" t="s">
         <v>1401</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="4" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="3" t="s">
         <v>1402</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="4" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="3" t="s">
         <v>1403</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="4" t="s">
         <v>1403</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="3" t="s">
         <v>1404</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="4" t="s">
         <v>1404</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="3" t="s">
         <v>1405</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="4" t="s">
         <v>1405</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" s="3" t="s">
         <v>1406</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="4" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" s="3" t="s">
         <v>1412</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="4" t="s">
         <v>1412</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="3" t="s">
         <v>1411</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="4" t="s">
         <v>1411</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" s="3" t="s">
         <v>1407</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="4" t="s">
         <v>1407</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" s="3" t="s">
         <v>1408</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="4" t="s">
         <v>1408</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" s="3" t="s">
         <v>1409</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="4" t="s">
         <v>1409</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" s="3" t="s">
         <v>1410</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="4" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" s="3" t="s">
         <v>1413</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="4" t="s">
         <v>1413</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" s="3" t="s">
         <v>1414</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="4" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" s="3" t="s">
         <v>1415</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="4" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" s="3" t="s">
         <v>1416</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="4" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" s="3" t="s">
         <v>1417</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="4" t="s">
         <v>1417</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" s="3" t="s">
         <v>1418</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="4" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="4" t="s">
         <v>1419</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" s="3" t="s">
         <v>1420</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="4" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" s="3" t="s">
         <v>1421</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="4" t="s">
         <v>1421</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" s="3" t="s">
         <v>1423</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="4" t="s">
         <v>1423</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" s="3" t="s">
         <v>1422</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="4" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" s="3" t="s">
         <v>1424</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="4" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" s="3" t="s">
         <v>1425</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="4" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" s="3" t="s">
         <v>1426</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="4" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="A141" s="3" t="s">
         <v>1427</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="4" t="s">
         <v>1427</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" s="3" t="s">
         <v>1428</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="4" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143" s="3" t="s">
         <v>1429</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="4" t="s">
         <v>1429</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" s="3" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" s="3" t="s">
         <v>1431</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="A146" s="3" t="s">
         <v>1432</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="4" t="s">
         <v>1432</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="A147" s="3" t="s">
         <v>1433</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="4" t="s">
         <v>1433</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" s="3" t="s">
         <v>1434</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="4" t="s">
         <v>1434</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149" s="3" t="s">
         <v>1435</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="4" t="s">
         <v>1435</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150" s="3" t="s">
         <v>1436</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="4" t="s">
         <v>1436</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151" s="3" t="s">
         <v>1437</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="4" t="s">
         <v>1437</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C152" t="s">
+      <c r="C152" s="4" t="s">
         <v>1504</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D153" t="s">
+      <c r="D153" s="4" t="s">
         <v>1507</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="A154" s="3" t="s">
         <v>1501</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="4" t="s">
         <v>1501</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155" s="3" t="s">
         <v>1438</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="4" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
+      <c r="B156" s="4" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
+      <c r="B157" s="4" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="A158" s="3" t="s">
         <v>1444</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="4" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" s="3" t="s">
         <v>1439</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="4" t="s">
         <v>1439</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="A160" s="3" t="s">
         <v>1443</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="4" t="s">
         <v>1443</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="A161" s="3" t="s">
         <v>1440</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="4" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="A162" s="3" t="s">
         <v>1441</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="4" t="s">
         <v>1441</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="A163" s="3" t="s">
         <v>1442</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="4" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="A164" s="3" t="s">
         <v>1445</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="4" t="s">
         <v>1445</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="A165" s="3" t="s">
         <v>1446</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="4" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="A166" s="3" t="s">
         <v>1447</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="4" t="s">
         <v>1447</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="A167" s="3" t="s">
         <v>1448</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="4" t="s">
         <v>1448</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="A168" s="3" t="s">
         <v>1449</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="A169" s="3" t="s">
         <v>1450</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="A170" s="3" t="s">
         <v>1451</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="A171" s="3" t="s">
         <v>1452</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="A172" s="3" t="s">
         <v>1453</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="4" t="s">
         <v>1453</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="A173" s="3" t="s">
         <v>1454</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="A174" s="3" t="s">
         <v>1455</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="A175" s="3" t="s">
         <v>1456</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="A176" s="3" t="s">
         <v>1457</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="A177" s="3" t="s">
         <v>1458</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="4" t="s">
         <v>1458</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="A178" s="3" t="s">
         <v>1459</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="4" t="s">
         <v>1459</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="A179" s="3" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="A180" s="3" t="s">
         <v>1461</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="A181" s="3" t="s">
         <v>1462</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="A182" s="3" t="s">
         <v>1463</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="A183" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="A184" s="3" t="s">
         <v>1464</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="4" t="s">
         <v>1464</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="A185" s="3" t="s">
         <v>1465</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="A186" s="3" t="s">
         <v>1466</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="A187" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="4" t="s">
         <v>1467</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="A188" s="3" t="s">
         <v>1468</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="4" t="s">
         <v>1468</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="A189" s="3" t="s">
         <v>1469</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="4" t="s">
         <v>1469</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="A190" s="3" t="s">
         <v>1547</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="4" t="s">
         <v>1547</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="A191" s="3" t="s">
         <v>1470</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="4" t="s">
         <v>1470</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="A192" s="3" t="s">
         <v>1471</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="4" t="s">
         <v>1471</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="A193" s="3" t="s">
         <v>1472</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="4" t="s">
         <v>1472</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="A194" s="3" t="s">
         <v>1473</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="4" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="A195" s="3" t="s">
         <v>1474</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="4" t="s">
         <v>1474</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="A196" s="3" t="s">
         <v>1475</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="A197" s="3" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="A198" s="3" t="s">
         <v>1477</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="A199" s="3" t="s">
         <v>1478</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="A200" s="3" t="s">
         <v>1479</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="A201" s="3" t="s">
         <v>1480</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="A202" s="3" t="s">
         <v>1481</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="A203" s="3" t="s">
         <v>1482</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="A204" s="3" t="s">
         <v>1483</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="A205" s="3" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="A206" s="3" t="s">
         <v>1485</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="A207" s="3" t="s">
         <v>1486</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="A208" s="3" t="s">
         <v>1487</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="A209" s="3" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B210" t="s">
+      <c r="B210" s="4" t="s">
         <v>1548</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
+      <c r="B211" s="4" t="s">
         <v>1549</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="A212" s="3" t="s">
         <v>1489</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="4" t="s">
         <v>1489</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="A213" s="3" t="s">
         <v>1490</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="4" t="s">
         <v>1490</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="A214" s="3" t="s">
         <v>1491</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="4" t="s">
         <v>1491</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="A215" s="3" t="s">
         <v>1492</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="A216" s="3" t="s">
         <v>1493</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="4" t="s">
         <v>1493</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="A217" s="3" t="s">
         <v>1494</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="4" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="A218" s="3" t="s">
         <v>1495</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="4" t="s">
         <v>1495</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D219" t="s">
+      <c r="D219" s="4" t="s">
         <v>1508</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{D5AF80DA-4387-4060-A430-4075588ECA14}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{C34AF7F3-829A-4687-A84D-9F3762525B2F}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{B4FF9EE0-362C-4EB3-8A29-3AFBF393EA6F}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{9890F2EE-20DD-4F84-9D98-27064FA964E8}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{F8ECB718-D70C-4576-B25D-BBF5A7904048}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{FDA893EB-F98E-486F-81DD-CD835E0E5154}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{1AE52540-FEF7-4D27-AC87-110524FAC7EA}"/>
+    <hyperlink ref="E12" r:id="rId8" xr:uid="{FED2BEC0-53F2-4E41-BFB9-29417555EC70}"/>
+    <hyperlink ref="E13" r:id="rId9" xr:uid="{D9E8FA51-AF4B-4D5E-8248-A7F3BB0EDF79}"/>
+    <hyperlink ref="E14" r:id="rId10" xr:uid="{9DC1CDA6-BA00-4FDD-AE79-168298A38EE3}"/>
+    <hyperlink ref="E15" r:id="rId11" xr:uid="{C1E599EE-1872-404B-869B-692F847FD267}"/>
+    <hyperlink ref="E16" r:id="rId12" xr:uid="{88D67083-85C0-4617-BEB3-78A595BEFC59}"/>
+    <hyperlink ref="E17" r:id="rId13" xr:uid="{2BBE021C-0DB4-47C7-8B76-1CC316F9FD66}"/>
+    <hyperlink ref="E18" r:id="rId14" xr:uid="{D40D98F8-4006-4913-91CD-F4D0E832AC9E}"/>
+    <hyperlink ref="E57" r:id="rId15" xr:uid="{8FBD1EB8-C956-425F-BB9C-02781B82E52C}"/>
+    <hyperlink ref="E56" r:id="rId16" xr:uid="{E1B9EF86-E6FC-4CA8-9162-8F17B47144FE}"/>
+    <hyperlink ref="E19" r:id="rId17" xr:uid="{3174D9D3-D61A-458D-AA0B-E0B755E08C68}"/>
+    <hyperlink ref="E90" r:id="rId18" xr:uid="{85325F41-2531-4560-A887-CF0FBDBD4828}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{91F9AD0C-2A13-4C75-A60B-401AB9646680}"/>
+    <hyperlink ref="E109" r:id="rId20" xr:uid="{6BB6D37C-C092-4B31-B17C-241324CFAC28}"/>
+    <hyperlink ref="E110" r:id="rId21" xr:uid="{9F15AA92-91CA-4C5A-9ED1-573698C6989D}"/>
+    <hyperlink ref="E111" r:id="rId22" xr:uid="{787EB579-79EA-4D42-A568-7D5D11BD468F}"/>
+    <hyperlink ref="E21" r:id="rId23" xr:uid="{1AA10442-65F0-4CAE-84FC-94DF1C279FA4}"/>
+    <hyperlink ref="E22" r:id="rId24" xr:uid="{2C47BD6C-B33A-42A3-AA97-7DF4ABDABE7B}"/>
+    <hyperlink ref="E23" r:id="rId25" xr:uid="{5E1352AD-9C87-4F58-A125-61275ECA11E6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14165,6 +14387,16 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_activity xmlns="36354d7e-163f-40eb-b978-cce71771c1f1" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004222493D04F36E498343FD1F263FE457" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dff6174afa9775cdde48c5192d5c745c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="36354d7e-163f-40eb-b978-cce71771c1f1" xmlns:ns4="14a80677-60f4-4cc2-8127-0186e2cf64a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e7e071efaea11a250735ad30ec12af2e" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -14428,16 +14660,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_activity xmlns="36354d7e-163f-40eb-b978-cce71771c1f1" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B72B49D-CCC7-45F7-8526-1F385CB54990}">
   <ds:schemaRefs>
@@ -14447,6 +14669,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C82FB17-50E6-4BA2-9476-82AA38D7CF00}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="14a80677-60f4-4cc2-8127-0186e2cf64a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="36354d7e-163f-40eb-b978-cce71771c1f1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CCA7AF7-7753-432F-91DC-8CC84E5DC301}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14464,22 +14704,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C82FB17-50E6-4BA2-9476-82AA38D7CF00}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="14a80677-60f4-4cc2-8127-0186e2cf64a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="36354d7e-163f-40eb-b978-cce71771c1f1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/relationship_mapping.xlsx
+++ b/relationship_mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kek67197.MYID\AppData\Roaming\OCLC\Connex\Macros\Projects\RelationshipLabels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FA6977-E4E0-4A13-84FE-94A0DED8029D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDE4C7F-5958-47F9-8329-8CC3BAD021C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="1" xr2:uid="{88E9D25B-84E2-4D1B-9CF6-0F03DEA062E6}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="1581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="1634">
   <si>
     <t>creator</t>
   </si>
@@ -4055,9 +4055,6 @@
     <t>appendix to</t>
   </si>
   <si>
-    <t>aumentation of</t>
-  </si>
-  <si>
     <t>augmented by</t>
   </si>
   <si>
@@ -4770,6 +4767,168 @@
   </si>
   <si>
     <t>http://rdaregistry.info/Elements/w/P10235</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10034</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10236</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10289</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10076</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10098</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10085</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10095</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10096</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10249</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10097</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10087</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10023</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10177</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10112</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10121</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10140</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10123</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10151</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10192</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10108</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10190</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10029</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10026</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10387</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10390</t>
+  </si>
+  <si>
+    <t>deprecated</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10183</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10294</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10295</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10116</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10187</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10103</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10226</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10191</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10115</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>NB: New elements "Work: concordance work for" and "Expression: concordance work" are work-to-expression/expression-to-work relationships</t>
+  </si>
+  <si>
+    <t>NB: New element "Work: catalogue of" is work-to-manifestation relationship for works describing collection manifestations</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10182</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10148</t>
+  </si>
+  <si>
+    <t>NB: the RDA element has been renamed to "source work"</t>
+  </si>
+  <si>
+    <t>-clb</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10369</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10370</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10118</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10100</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10139</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10171</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10127</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10016</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10092</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10149</t>
+  </si>
+  <si>
+    <t>http://rdaregistry.info/Elements/w/P10120</t>
+  </si>
+  <si>
+    <t>Document cites RDA element name as "work described in", but it is "work deescribed by"</t>
   </si>
 </sst>
 </file>
@@ -4807,7 +4966,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4830,18 +4989,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10014,11 +10185,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F12BAC-9A30-4305-86EA-C3B11800714B}">
-  <dimension ref="A1:H219"/>
+  <dimension ref="A1:I219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10032,65 +10203,68 @@
     <col min="8" max="8" width="27" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1310</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1551</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1552</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1553</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>1525</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E2" s="3" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
         <v>1505</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>1551</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>1552</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>1553</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>1526</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="4" t="s">
-        <v>1506</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1311</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1312</v>
       </c>
@@ -10098,10 +10272,10 @@
         <v>1312</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1313</v>
       </c>
@@ -10109,21 +10283,21 @@
         <v>1313</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1527</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>1314</v>
       </c>
@@ -10131,21 +10305,21 @@
         <v>1314</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1315</v>
       </c>
@@ -10153,10 +10327,10 @@
         <v>1315</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>1316</v>
       </c>
@@ -10164,21 +10338,21 @@
         <v>1316</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>1562</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>1529</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1529</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>1317</v>
       </c>
@@ -10186,10 +10360,10 @@
         <v>1317</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>1318</v>
       </c>
@@ -10197,10 +10371,10 @@
         <v>1318</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>1319</v>
       </c>
@@ -10208,18 +10382,18 @@
         <v>1319</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -10230,7 +10404,7 @@
         <v>1320</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -10241,7 +10415,7 @@
         <v>1321</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -10252,7 +10426,7 @@
         <v>1322</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -10263,7 +10437,7 @@
         <v>1323</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -10274,7 +10448,7 @@
         <v>1324</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -10285,7 +10459,7 @@
         <v>1325</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -10295,6 +10469,9 @@
       <c r="B24" s="4" t="s">
         <v>1326</v>
       </c>
+      <c r="E24" s="5" t="s">
+        <v>1580</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -10303,6 +10480,9 @@
       <c r="B25" s="4" t="s">
         <v>1327</v>
       </c>
+      <c r="E25" s="5" t="s">
+        <v>1581</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -10311,6 +10491,9 @@
       <c r="B26" s="4" t="s">
         <v>1328</v>
       </c>
+      <c r="E26" s="5" t="s">
+        <v>1582</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -10319,6 +10502,9 @@
       <c r="B27" s="4" t="s">
         <v>1329</v>
       </c>
+      <c r="E27" s="5" t="s">
+        <v>1583</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -10327,6 +10513,9 @@
       <c r="B28" s="4" t="s">
         <v>1330</v>
       </c>
+      <c r="E28" s="5" t="s">
+        <v>1584</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -10335,6 +10524,9 @@
       <c r="B29" s="4" t="s">
         <v>1331</v>
       </c>
+      <c r="E29" s="5" t="s">
+        <v>1586</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -10343,6 +10535,9 @@
       <c r="B30" s="4" t="s">
         <v>1332</v>
       </c>
+      <c r="E30" s="5" t="s">
+        <v>1585</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -10351,1108 +10546,1345 @@
       <c r="B31" s="4" t="s">
         <v>1333</v>
       </c>
+      <c r="E31" s="5" t="s">
+        <v>1587</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="5" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>1335</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="5" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>1336</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="5" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>1337</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="5" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>1339</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="5" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>1338</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="5" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="3" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1495</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>1340</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="5" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>1532</v>
+      </c>
       <c r="B42" s="4" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1532</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>1341</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="5" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="s">
+      <c r="E45" s="3" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="B46" s="4" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>1342</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>1345</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="E70" s="3" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>1498</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="4" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="5" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="5" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>1364</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B74" s="4" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="E74" s="5" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>1365</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B75" s="4" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="E75" s="5" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B76" s="4" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="E76" s="5" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>1367</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="4" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="4" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>1368</v>
+      <c r="E80" s="5" t="s">
+        <v>1631</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>1500</v>
+        <v>1499</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>1632</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C85" s="4" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>1382</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B98" s="4" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>1384</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B100" s="4" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>1383</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>1386</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B101" s="4" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>1387</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B102" s="4" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>1388</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+      <c r="B109" s="4" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
         <v>1395</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B111" s="4" t="s">
         <v>1395</v>
       </c>
-      <c r="E109" s="5" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+      <c r="E111" s="5" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
         <v>1397</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>1397</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>1396</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>1396</v>
-      </c>
-      <c r="E111" s="5" t="s">
+      <c r="E112" s="5" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F112" s="4" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+      <c r="G112" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
+      <c r="E113" s="5" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
+      <c r="B114" s="4" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
         <v>1400</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
+      <c r="B115" s="4" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
         <v>1401</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
+      <c r="B116" s="4" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
         <v>1402</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B117" s="4" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
         <v>1403</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B118" s="4" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
         <v>1404</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B119" s="4" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
         <v>1405</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B120" s="4" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
         <v>1406</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B123" s="4" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
         <v>1412</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B127" s="4" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>1409</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
         <v>1413</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B128" s="4" t="s">
         <v>1413</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C152" s="4" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D153" s="4" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B156" s="4" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B157" s="4" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -11465,230 +11897,230 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B210" s="4" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B211" s="4" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D219" s="4" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
   </sheetData>
@@ -11718,6 +12150,53 @@
     <hyperlink ref="E21" r:id="rId23" xr:uid="{1AA10442-65F0-4CAE-84FC-94DF1C279FA4}"/>
     <hyperlink ref="E22" r:id="rId24" xr:uid="{2C47BD6C-B33A-42A3-AA97-7DF4ABDABE7B}"/>
     <hyperlink ref="E23" r:id="rId25" xr:uid="{5E1352AD-9C87-4F58-A125-61275ECA11E6}"/>
+    <hyperlink ref="E24" r:id="rId26" xr:uid="{CCC56A87-36F9-4E01-8F28-2A184975EEA8}"/>
+    <hyperlink ref="E25" r:id="rId27" xr:uid="{CCBB0E03-206E-4D2B-8C91-A527C00E9C40}"/>
+    <hyperlink ref="E26" r:id="rId28" xr:uid="{7DE74571-4607-4175-905A-B3192E500BA3}"/>
+    <hyperlink ref="E27" r:id="rId29" xr:uid="{3B113E6F-51AA-4134-B644-FFD5A012E7D9}"/>
+    <hyperlink ref="E28" r:id="rId30" xr:uid="{FFA62AC9-3BF7-4652-8BEC-5B9F34A0EF93}"/>
+    <hyperlink ref="E30" r:id="rId31" xr:uid="{E32FDD1B-6033-4136-A623-931416BBCD80}"/>
+    <hyperlink ref="E29" r:id="rId32" xr:uid="{9935938C-7BC1-4DD7-9F15-79CA725C3C3B}"/>
+    <hyperlink ref="E31" r:id="rId33" xr:uid="{41F8F4C1-AE1C-447F-9D9E-CD369EFC279F}"/>
+    <hyperlink ref="E32" r:id="rId34" xr:uid="{45341770-8973-4D9A-8ED6-7DCCCDAE966F}"/>
+    <hyperlink ref="E33" r:id="rId35" xr:uid="{83FF0CBC-3D2A-468F-BD3E-49E39AA688F0}"/>
+    <hyperlink ref="E34" r:id="rId36" xr:uid="{09903D0F-8503-4BB0-A62A-92D64271D5E9}"/>
+    <hyperlink ref="E35" r:id="rId37" xr:uid="{28E61BA9-50F5-4F93-BE22-1F173536B255}"/>
+    <hyperlink ref="E37" r:id="rId38" xr:uid="{20A64A71-DF47-4AEB-B41F-AA4826DE513A}"/>
+    <hyperlink ref="E36" r:id="rId39" xr:uid="{16C9C787-33EB-4E8C-9AB7-39B5517B0DB9}"/>
+    <hyperlink ref="E40" r:id="rId40" xr:uid="{C9F01A71-672A-4F92-AECD-589A51BFAF5F}"/>
+    <hyperlink ref="E41" r:id="rId41" xr:uid="{665340FD-F912-4D01-A1B4-B3548C56014A}"/>
+    <hyperlink ref="E42" r:id="rId42" xr:uid="{5F8A3D54-A409-47BC-9B12-8959384304DC}"/>
+    <hyperlink ref="E43" r:id="rId43" xr:uid="{4467DA9F-6600-45B9-BBDC-31A5642E2E20}"/>
+    <hyperlink ref="E46" r:id="rId44" xr:uid="{D8790D3A-7B39-45EA-971A-D0826ECD481B}"/>
+    <hyperlink ref="E47" r:id="rId45" xr:uid="{0A6CB956-C003-4B01-92C8-A05D52665C52}"/>
+    <hyperlink ref="E48" r:id="rId46" xr:uid="{9F7359E1-B8B7-4D55-96DA-535761CBE104}"/>
+    <hyperlink ref="E49" r:id="rId47" xr:uid="{E5BBD227-8D48-44B7-8DFD-AF302E733481}"/>
+    <hyperlink ref="E50" r:id="rId48" xr:uid="{EEEDBC16-1177-4E39-9F21-760A240D9E19}"/>
+    <hyperlink ref="E51" r:id="rId49" xr:uid="{D8272A2D-6AB1-4316-BCB7-808E405A2F6A}"/>
+    <hyperlink ref="E52" r:id="rId50" xr:uid="{3EF44FA4-47F4-49A2-BC70-F5038F0DE9FA}"/>
+    <hyperlink ref="E55" r:id="rId51" xr:uid="{407D8DB0-C720-47C6-8C65-B72987F79359}"/>
+    <hyperlink ref="E58" r:id="rId52" xr:uid="{2D889CA3-C61A-4767-97E0-85516806CE92}"/>
+    <hyperlink ref="E59" r:id="rId53" xr:uid="{1309506D-7555-4959-BAB3-6BF576DEDBB0}"/>
+    <hyperlink ref="E60" r:id="rId54" xr:uid="{F7EBF5FE-926E-4F5F-AC57-A7D96CDC7716}"/>
+    <hyperlink ref="E61" r:id="rId55" xr:uid="{DA80CDAE-5523-4E1D-8F1B-EA7696CD15A3}"/>
+    <hyperlink ref="E62" r:id="rId56" xr:uid="{BA9F6DA4-796B-40E6-80E6-3976FB148EDE}"/>
+    <hyperlink ref="E65" r:id="rId57" xr:uid="{D989D9BB-26B6-4FE5-A41D-67662691DB4B}"/>
+    <hyperlink ref="E66" r:id="rId58" xr:uid="{8EEB339B-54D8-4539-BE7D-B3F8A3BBB249}"/>
+    <hyperlink ref="E67" r:id="rId59" xr:uid="{4C4CB51D-D058-4859-A762-F9A51C8B67BF}"/>
+    <hyperlink ref="E68" r:id="rId60" xr:uid="{E9350E2C-7770-42C8-BCF6-23BEC3C3A7EF}"/>
+    <hyperlink ref="E69" r:id="rId61" xr:uid="{D837F35D-E295-42AF-8ED4-4B3B32D64ED8}"/>
+    <hyperlink ref="E112" r:id="rId62" xr:uid="{1901B9A3-5C6F-476E-A11B-F9BACD01374A}"/>
+    <hyperlink ref="E113" r:id="rId63" xr:uid="{3B0781EE-DF32-424E-A36F-F0EF92E6FBB7}"/>
+    <hyperlink ref="E71" r:id="rId64" xr:uid="{C39C34CA-A429-451A-BB18-31AEB692EFDD}"/>
+    <hyperlink ref="E72" r:id="rId65" xr:uid="{A34B89FC-41DF-44A5-9017-BCBB7B76C5D5}"/>
+    <hyperlink ref="E73" r:id="rId66" xr:uid="{04C33BBB-46A2-48EB-936B-FA4B6514D9AA}"/>
+    <hyperlink ref="E74" r:id="rId67" xr:uid="{498E050F-01F5-42C9-A5B9-66A1B9533512}"/>
+    <hyperlink ref="E75" r:id="rId68" xr:uid="{4551D045-31E7-42AF-9F35-C2F9A811CBE0}"/>
+    <hyperlink ref="E76" r:id="rId69" xr:uid="{F87AF195-D45A-46FB-94DF-CB27787E27DE}"/>
+    <hyperlink ref="E79" r:id="rId70" xr:uid="{C8CE9FC5-17BC-426E-81FE-939C37418433}"/>
+    <hyperlink ref="E80" r:id="rId71" xr:uid="{128956DD-7BF8-4543-A704-5E1B4CA104EE}"/>
+    <hyperlink ref="E81" r:id="rId72" xr:uid="{E511E729-E3E5-480D-97D2-35AEEE598BFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11727,8 +12206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A70CA9A-5FF9-4E86-A663-A58967A4F044}">
   <dimension ref="A1:D302"/>
   <sheetViews>
-    <sheetView topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="C191" sqref="C191"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11741,13 +12220,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B1" t="s">
         <v>1509</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1510</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -11769,7 +12248,7 @@
         <v>713</v>
       </c>
       <c r="C3" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -11805,7 +12284,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -11816,7 +12295,7 @@
         <v>721</v>
       </c>
       <c r="C7" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -11827,7 +12306,7 @@
         <v>723</v>
       </c>
       <c r="C8" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -11990,7 +12469,7 @@
         <v>757</v>
       </c>
       <c r="C25" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -12001,7 +12480,7 @@
         <v>759</v>
       </c>
       <c r="C26" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -12023,7 +12502,7 @@
         <v>763</v>
       </c>
       <c r="C28" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -12183,9 +12662,8 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="e">
-        <f>-clb</f>
-        <v>#NAME?</v>
+      <c r="A47" s="2" t="s">
+        <v>1621</v>
       </c>
       <c r="B47" t="s">
         <v>800</v>
@@ -12304,7 +12782,7 @@
         <v>826</v>
       </c>
       <c r="C60" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -12315,7 +12793,7 @@
         <v>828</v>
       </c>
       <c r="C61" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -12942,7 +13420,7 @@
         <v>977</v>
       </c>
       <c r="C136" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -13233,7 +13711,7 @@
         <v>1041</v>
       </c>
       <c r="C169" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -13351,7 +13829,7 @@
         <v>1069</v>
       </c>
       <c r="C183" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -13424,7 +13902,7 @@
         <v>1085</v>
       </c>
       <c r="C191" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -13942,7 +14420,7 @@
         <v>1207</v>
       </c>
       <c r="C252" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -14378,15 +14856,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -14394,6 +14863,15 @@
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14661,14 +15139,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B72B49D-CCC7-45F7-8526-1F385CB54990}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C82FB17-50E6-4BA2-9476-82AA38D7CF00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="14a80677-60f4-4cc2-8127-0186e2cf64a5"/>
@@ -14682,6 +15152,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B72B49D-CCC7-45F7-8526-1F385CB54990}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
